--- a/results/new_cu_same/15x15/new_cu_same_15x15_True_2_500.xlsx
+++ b/results/new_cu_same/15x15/new_cu_same_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>90.928</v>
+        <v>54.634</v>
       </c>
       <c r="D2" t="n">
-        <v>90.928</v>
+        <v>54.634</v>
       </c>
       <c r="E2" t="n">
-        <v>1.89546</v>
+        <v>3.13345588</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07736999999999999</v>
+        <v>0.1216005</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07736999999999999</v>
+        <v>0.1216005</v>
       </c>
       <c r="H2" t="n">
-        <v>6.93213</v>
+        <v>6.55444244</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>6.329943156199859</v>
       </c>
       <c r="J2" t="n">
-        <v>12.87582</v>
+        <v>6.329943156199859</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3522844533788149</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01673302632191139</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01673302632191139</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.4966816585414741</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>54.634</v>
+        <v>90.928</v>
       </c>
       <c r="D3" t="n">
-        <v>54.634</v>
+        <v>90.928</v>
       </c>
       <c r="E3" t="n">
-        <v>3.13346</v>
+        <v>1.89545856</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1216</v>
+        <v>0.07737415999999998</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1216</v>
+        <v>0.07737415999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>6.55444</v>
+        <v>6.93212752</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>12.88871809406259</v>
       </c>
       <c r="J3" t="n">
-        <v>6.32361</v>
+        <v>12.88871809406259</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2652280383235383</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01093635110287204</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01093635110287204</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6891824498739635</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>63.16</v>
       </c>
       <c r="E4" t="n">
-        <v>2.78779</v>
+        <v>2.78779306</v>
       </c>
       <c r="F4" t="n">
-        <v>0.17615</v>
+        <v>0.17614982</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08807</v>
+        <v>0.08807480000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2.69611</v>
+        <v>2.69610944</v>
       </c>
       <c r="I4" t="n">
+        <v>6.452260016353748</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.90206675898503</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5647982108374342</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.03939822215768082</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0196996031149303</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4394729316909797</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.4458</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +665,37 @@
         <v>95.89</v>
       </c>
       <c r="E5" t="n">
-        <v>1.81214</v>
+        <v>1.81214186</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11771</v>
+        <v>0.11770542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05885</v>
+        <v>0.05885248</v>
       </c>
       <c r="H5" t="n">
-        <v>2.80656</v>
+        <v>2.80656324</v>
       </c>
       <c r="I5" t="n">
+        <v>8.693567289924712</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16.08948859617897</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3035120056377885</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.02206215434022398</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01103121402272798</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3700467820198805</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.68487</v>
       </c>
     </row>
     <row r="6">
@@ -621,28 +706,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.7</v>
+        <v>16.002</v>
       </c>
       <c r="D6" t="n">
-        <v>94.70999999999999</v>
+        <v>63.93</v>
       </c>
       <c r="E6" t="n">
-        <v>1.84283</v>
+        <v>2.8242366</v>
       </c>
       <c r="F6" t="n">
-        <v>0.17455</v>
+        <v>0.2400204</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04364</v>
+        <v>0.06000524</v>
       </c>
       <c r="H6" t="n">
-        <v>1.09179</v>
+        <v>0.93188626</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>4.182461232806331</v>
       </c>
       <c r="J6" t="n">
-        <v>5.76073</v>
+        <v>16.69726616529753</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7267734663607719</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.06102469562063528</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01525627562790044</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2470585752379577</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +753,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16.002</v>
+        <v>25.7</v>
       </c>
       <c r="D7" t="n">
-        <v>63.93</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>2.82424</v>
+        <v>1.84282608</v>
       </c>
       <c r="F7" t="n">
-        <v>0.24002</v>
+        <v>0.17455174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06001</v>
+        <v>0.04363776</v>
       </c>
       <c r="H7" t="n">
-        <v>0.93189</v>
+        <v>1.09179158</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>5.766498505160652</v>
       </c>
       <c r="J7" t="n">
-        <v>4.17828</v>
+        <v>16.76962553789925</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3413453344326115</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.03912838032766668</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.009782105138685056</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2378935879793884</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>61.018</v>
       </c>
       <c r="E8" t="n">
-        <v>2.9889</v>
+        <v>2.98890054</v>
       </c>
       <c r="F8" t="n">
-        <v>0.28352</v>
+        <v>0.2835155999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04725</v>
+        <v>0.0472524</v>
       </c>
       <c r="H8" t="n">
-        <v>0.46839</v>
+        <v>0.4683868</v>
       </c>
       <c r="I8" t="n">
+        <v>2.999355976296427</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17.99603819682441</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8027512641932345</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.08466702085393439</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01411132435990261</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.161982069523309</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.99636</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>89.13800000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>1.95902</v>
+        <v>1.95902358</v>
       </c>
       <c r="F9" t="n">
-        <v>0.19247</v>
+        <v>0.19246968</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03208</v>
+        <v>0.0320784</v>
       </c>
       <c r="H9" t="n">
-        <v>0.54759</v>
+        <v>0.5475926799999999</v>
       </c>
       <c r="I9" t="n">
+        <v>4.557130113321264</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.18873392864386</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.362106208537089</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.04751380519033315</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.007919173521177386</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1531297898094024</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.55257</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.398</v>
+        <v>7.046</v>
       </c>
       <c r="D10" t="n">
-        <v>83.142</v>
+        <v>56.166</v>
       </c>
       <c r="E10" t="n">
-        <v>2.10072</v>
+        <v>3.20673472</v>
       </c>
       <c r="F10" t="n">
-        <v>0.19063</v>
+        <v>0.28265714</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02383</v>
+        <v>0.03533212</v>
       </c>
       <c r="H10" t="n">
-        <v>0.31359</v>
+        <v>0.24888046</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>1.796200621686423</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65398</v>
+        <v>14.27325806505239</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8236979712140158</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.08970653709298353</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01121325574998757</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1057978885897469</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.046</v>
+        <v>13.398</v>
       </c>
       <c r="D11" t="n">
-        <v>56.166</v>
+        <v>83.142</v>
       </c>
       <c r="E11" t="n">
-        <v>3.20674</v>
+        <v>2.1007238</v>
       </c>
       <c r="F11" t="n">
-        <v>0.28266</v>
+        <v>0.19063272</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03533</v>
+        <v>0.02382906</v>
       </c>
       <c r="H11" t="n">
-        <v>0.24888</v>
+        <v>0.31358678</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>3.657643053307802</v>
       </c>
       <c r="J11" t="n">
-        <v>1.7944</v>
+        <v>15.35869835729776</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3799389611212778</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.05346330580066923</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.006683218606201398</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1076538559906281</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>58.314</v>
       </c>
       <c r="E12" t="n">
-        <v>3.10644</v>
+        <v>3.10643778</v>
       </c>
       <c r="F12" t="n">
-        <v>0.27895</v>
+        <v>0.2789528</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0279</v>
+        <v>0.02789532</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16728</v>
+        <v>0.16727792</v>
       </c>
       <c r="I12" t="n">
+        <v>1.584568621243921</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.73985037348065</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8258367178945953</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1026587928472652</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01026589665669453</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.08858626298955448</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.58298</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>76.73999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>2.29169</v>
+        <v>2.29169176</v>
       </c>
       <c r="F13" t="n">
-        <v>0.16752</v>
+        <v>0.16752428</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01675</v>
+        <v>0.01675238</v>
       </c>
       <c r="H13" t="n">
-        <v>0.17952</v>
+        <v>0.17951754</v>
       </c>
       <c r="I13" t="n">
+        <v>3.438093217168476</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15.54747078130044</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4587957001440224</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0479873071068625</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.004798775283762316</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.06813145271786956</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.43465</v>
       </c>
     </row>
   </sheetData>

--- a/results/new_cu_same/15x15/new_cu_same_15x15_True_2_500.xlsx
+++ b/results/new_cu_same/15x15/new_cu_same_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/new_cu_same/15x15/new_cu_same_15x15_True_2_500.xlsx
+++ b/results/new_cu_same/15x15/new_cu_same_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.1216005</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1216005</v>
+        <v>6.554423839999999</v>
       </c>
       <c r="H2" t="n">
-        <v>6.55444244</v>
+        <v>357.76253134</v>
       </c>
       <c r="I2" t="n">
         <v>6.329943156199859</v>
@@ -548,10 +548,10 @@
         <v>0.01673302632191139</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01673302632191139</v>
+        <v>0.496689685637715</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4966816585414741</v>
+        <v>46.44027956847143</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.07737415999999998</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07737415999999998</v>
+        <v>6.93212394</v>
       </c>
       <c r="H3" t="n">
-        <v>6.93212752</v>
+        <v>633.4908791399999</v>
       </c>
       <c r="I3" t="n">
         <v>12.88871809406259</v>
@@ -595,10 +595,10 @@
         <v>0.01093635110287204</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01093635110287204</v>
+        <v>0.689183557178817</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6891824498739635</v>
+        <v>128.3414278038793</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.17614982</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08807480000000001</v>
+        <v>2.69610748</v>
       </c>
       <c r="H4" t="n">
-        <v>2.69610944</v>
+        <v>85.93855697999999</v>
       </c>
       <c r="I4" t="n">
         <v>6.452260016353748</v>
@@ -642,10 +642,10 @@
         <v>0.03939822215768082</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0196996031149303</v>
+        <v>0.4394778409328411</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4394729316909797</v>
+        <v>24.90319498582187</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.11770542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05885248</v>
+        <v>2.806555679999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2.80656324</v>
+        <v>138.01340042</v>
       </c>
       <c r="I5" t="n">
         <v>8.693567289924712</v>
@@ -689,10 +689,10 @@
         <v>0.02206215434022398</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01103121402272798</v>
+        <v>0.3700454724131137</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3700467820198805</v>
+        <v>34.83768979095407</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.2400204</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06000524</v>
+        <v>0.9318887</v>
       </c>
       <c r="H6" t="n">
-        <v>0.93188626</v>
+        <v>15.4618549</v>
       </c>
       <c r="I6" t="n">
         <v>4.182461232806331</v>
@@ -736,10 +736,10 @@
         <v>0.06102469562063528</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01525627562790044</v>
+        <v>0.2470606015498756</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2470585752379577</v>
+        <v>7.274285970939513</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.17455174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04363776</v>
+        <v>1.09178768</v>
       </c>
       <c r="H7" t="n">
-        <v>1.09179158</v>
+        <v>28.71313114</v>
       </c>
       <c r="I7" t="n">
         <v>5.766498505160652</v>
@@ -783,10 +783,10 @@
         <v>0.03912838032766668</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009782105138685056</v>
+        <v>0.2378947320258877</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2378935879793884</v>
+        <v>11.88142715302962</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.2835155999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0472524</v>
+        <v>0.46838378</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4683868</v>
+        <v>5.01634664</v>
       </c>
       <c r="I8" t="n">
         <v>2.999355976296427</v>
@@ -830,10 +830,10 @@
         <v>0.08466702085393439</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01411132435990261</v>
+        <v>0.1619809555640492</v>
       </c>
       <c r="N8" t="n">
-        <v>0.161982069523309</v>
+        <v>3.004317489136955</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.19246968</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0320784</v>
+        <v>0.54759462</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5475926799999999</v>
+        <v>9.974282200000001</v>
       </c>
       <c r="I9" t="n">
         <v>4.557130113321264</v>
@@ -877,10 +877,10 @@
         <v>0.04751380519033315</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007919173521177386</v>
+        <v>0.1531322757743228</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1531297898094024</v>
+        <v>5.775106211956548</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.28265714</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03533212</v>
+        <v>0.2488806</v>
       </c>
       <c r="H10" t="n">
-        <v>0.24888046</v>
+        <v>1.86258992</v>
       </c>
       <c r="I10" t="n">
         <v>1.796200621686423</v>
@@ -924,10 +924,10 @@
         <v>0.08970653709298353</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01121325574998757</v>
+        <v>0.1057977267790913</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1057978885897469</v>
+        <v>1.183603468563346</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.19063272</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02382906</v>
+        <v>0.31358608</v>
       </c>
       <c r="H11" t="n">
-        <v>0.31358678</v>
+        <v>4.444253300000001</v>
       </c>
       <c r="I11" t="n">
         <v>3.657643053307802</v>
@@ -971,10 +971,10 @@
         <v>0.05346330580066923</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006683218606201398</v>
+        <v>0.1076541527514981</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1076538559906281</v>
+        <v>3.013857900209201</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.2789528</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02789532</v>
+        <v>0.16727788</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16727792</v>
+        <v>1.07234594</v>
       </c>
       <c r="I12" t="n">
         <v>1.584568621243921</v>
@@ -1018,10 +1018,10 @@
         <v>0.1026587928472652</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01026589665669453</v>
+        <v>0.08858614315921678</v>
       </c>
       <c r="N12" t="n">
-        <v>0.08858626298955448</v>
+        <v>0.8449439894544175</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.16752428</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01675238</v>
+        <v>0.1795166</v>
       </c>
       <c r="H13" t="n">
-        <v>0.17951754</v>
+        <v>2.10835274</v>
       </c>
       <c r="I13" t="n">
         <v>3.438093217168476</v>
@@ -1065,10 +1065,10 @@
         <v>0.0479873071068625</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004798775283762316</v>
+        <v>0.06813177213303626</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06813145271786956</v>
+        <v>1.58756538453717</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>
